--- a/7. Statistic Analysis/Results/Java/Chunks/Wilcoxon - multi line high edits comm.xlsx
+++ b/7. Statistic Analysis/Results/Java/Chunks/Wilcoxon - multi line high edits comm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"><![CDATA[Valid]]></t>
   </si>
@@ -34,58 +34,43 @@
     <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & EffortToImplement]]></t>
   </si>
   <si>
-    <t xml:space="preserve"><![CDATA[NbUniqueOperands & EffortToImplement]]></t>
-  </si>
-  <si>
-    <t xml:space="preserve"><![CDATA[NbOperands & EffortToImplement]]></t>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex & MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex & ProgramVolume]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbUniqueOperators]]></t>
   </si>
   <si>
-    <t xml:space="preserve"><![CDATA[NbUniqueOperators & EffortToImplement]]></t>
-  </si>
-  <si>
     <t xml:space="preserve"><![CDATA[NbOperators & CyclomaticComplexity(CC)]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[NbOperators & EffortToImplement]]></t>
   </si>
   <si>
-    <t xml:space="preserve"><![CDATA[ProgramLength & EffortToImplement]]></t>
-  </si>
-  <si>
-    <t xml:space="preserve"><![CDATA[VocabularySize & EffortToImplement]]></t>
+    <t xml:space="preserve"><![CDATA[ProgramVolume & MaintainabilityIndex]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[DifficultyLevel & DifficultyLevel]]></t>
   </si>
   <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel & TimeToImplement]]></t>
+  </si>
+  <si>
     <t xml:space="preserve"><![CDATA[ProgramLevel & ProgramLevel]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[EffortToImplement & CyclomaticComplexity(CC)]]></t>
   </si>
   <si>
-    <t xml:space="preserve"><![CDATA[EffortToImplement & NbUniqueOperands]]></t>
-  </si>
-  <si>
-    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperands]]></t>
-  </si>
-  <si>
-    <t xml:space="preserve"><![CDATA[EffortToImplement & NbUniqueOperators]]></t>
-  </si>
-  <si>
     <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperators]]></t>
   </si>
   <si>
-    <t xml:space="preserve"><![CDATA[EffortToImplement & ProgramLength]]></t>
-  </si>
-  <si>
-    <t xml:space="preserve"><![CDATA[EffortToImplement & VocabularySize]]></t>
-  </si>
-  <si>
     <t xml:space="preserve"><![CDATA[EffortToImplement & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement & DifficultyLevel]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[TimeToImplement & TimeToImplement]]></t>
@@ -419,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,16 +436,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>353.000000</v>
+        <v>512.000000</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.448994</v>
+        <v>0.062082</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.147340</v>
+        <v>0.950498</v>
       </c>
     </row>
     <row r="3">
@@ -468,16 +453,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>494.000000</v>
+        <v>433.000000</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.265257</v>
+        <v>1.589764</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.790811</v>
+        <v>0.111889</v>
       </c>
     </row>
     <row r="4">
@@ -485,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>401.000000</v>
+        <v>312.000000</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.315000</v>
+        <v>1.535566</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>0.188511</v>
+        <v>0.124646</v>
       </c>
     </row>
     <row r="5">
@@ -502,16 +487,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>440.000000</v>
+        <v>403.000000</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.874785</v>
+        <v>1.897461</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.381691</v>
+        <v>0.057768</v>
       </c>
     </row>
     <row r="6">
@@ -519,16 +504,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>282.000000</v>
+        <v>343.000000</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1.924316</v>
+        <v>1.773869</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.054316</v>
+        <v>0.076086</v>
       </c>
     </row>
     <row r="7">
@@ -536,16 +521,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>421.000000</v>
+        <v>517.500000</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1.089249</v>
+        <v>0.492070</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.276045</v>
+        <v>0.622670</v>
       </c>
     </row>
     <row r="8">
@@ -553,16 +538,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>453.000000</v>
+        <v>422.000000</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>0.490148</v>
+        <v>1.702586</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>0.624029</v>
+        <v>0.088646</v>
       </c>
     </row>
     <row r="9">
@@ -570,16 +555,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>482.000000</v>
+        <v>413.000000</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.400708</v>
+        <v>1.794895</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>0.688635</v>
+        <v>0.072671</v>
       </c>
     </row>
     <row r="10">
@@ -587,16 +572,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>436.000000</v>
+        <v>3.000000</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.919935</v>
+        <v>0.730297</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>0.357607</v>
+        <v>0.465209</v>
       </c>
     </row>
     <row r="11">
@@ -604,16 +589,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>350.000000</v>
+        <v>114.000000</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>1.890665</v>
+        <v>1.801875</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>0.058670</v>
+        <v>0.071566</v>
       </c>
     </row>
     <row r="12">
@@ -621,16 +606,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>3.000000</v>
+        <v>0.000000</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>0.730297</v>
+        <v>1.603567</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>0.465209</v>
+        <v>0.108810</v>
       </c>
     </row>
     <row r="13">
@@ -638,16 +623,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>0.000000</v>
+        <v>431.000000</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>1.603567</v>
+        <v>1.407427</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>0.108810</v>
+        <v>0.159302</v>
       </c>
     </row>
     <row r="14">
@@ -655,16 +640,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>485.000000</v>
+        <v>424.000000</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>0.116702</v>
+        <v>1.682073</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>0.907096</v>
+        <v>0.092556</v>
       </c>
     </row>
     <row r="15">
@@ -672,16 +657,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>407.000000</v>
+        <v>3.000000</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>1.247274</v>
+        <v>0.730297</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>0.212298</v>
+        <v>0.465209</v>
       </c>
     </row>
     <row r="16">
@@ -689,16 +674,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>464.000000</v>
+        <v>114.000000</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>0.603884</v>
+        <v>1.801875</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>0.545921</v>
+        <v>0.071566</v>
       </c>
     </row>
     <row r="17">
@@ -706,100 +691,15 @@
         <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>417.000000</v>
+        <v>3.000000</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>1.134399</v>
+        <v>0.730297</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>0.256628</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n" s="0">
-        <v>45</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>486.000000</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>0.355558</v>
-      </c>
-      <c r="E18" t="n" s="0">
-        <v>0.722172</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n" s="0">
-        <v>45</v>
-      </c>
-      <c r="C19" t="n" s="0">
-        <v>436.000000</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>0.919935</v>
-      </c>
-      <c r="E19" t="n" s="0">
-        <v>0.357607</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n" s="0">
-        <v>45</v>
-      </c>
-      <c r="C20" t="n" s="0">
-        <v>350.000000</v>
-      </c>
-      <c r="D20" t="n" s="0">
-        <v>1.890665</v>
-      </c>
-      <c r="E20" t="n" s="0">
-        <v>0.058670</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B21" t="n" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n" s="0">
-        <v>3.000000</v>
-      </c>
-      <c r="D21" t="n" s="0">
-        <v>0.730297</v>
-      </c>
-      <c r="E21" t="n" s="0">
-        <v>0.465209</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B22" t="n" s="0">
-        <v>4</v>
-      </c>
-      <c r="C22" t="n" s="0">
-        <v>3.000000</v>
-      </c>
-      <c r="D22" t="n" s="0">
-        <v>0.730297</v>
-      </c>
-      <c r="E22" t="n" s="0">
         <v>0.465209</v>
       </c>
     </row>
